--- a/Business Directory Test Data.xlsx
+++ b/Business Directory Test Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wende\OneDrive\Desktop\QA Internship - Group 1\Sprint 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BD16ABE-33C5-40FB-9A32-9A44C81A654C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814D26DF-87D3-4376-91F2-D6E88FD1D1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{5C552896-58DA-45B5-923E-0A0E8BFA021C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{5C552896-58DA-45B5-923E-0A0E8BFA021C}"/>
   </bookViews>
   <sheets>
     <sheet name="Business" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="317">
   <si>
     <t>Phone</t>
   </si>
@@ -971,13 +971,22 @@
   </si>
   <si>
     <t>Ad-000005</t>
+  </si>
+  <si>
+    <t>Business Owner Login</t>
+  </si>
+  <si>
+    <t>Testimonial</t>
+  </si>
+  <si>
+    <t>Admin Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1007,6 +1016,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1237,7 +1253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1334,6 +1350,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1650,601 +1670,607 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E751B4D-B7F9-43AD-B603-1C36864EEA8F}">
-  <dimension ref="A1:AE7"/>
+  <dimension ref="B2:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="2"/>
-    <col min="2" max="2" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="16.7109375" style="2"/>
-    <col min="9" max="9" width="43.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="22.28515625" style="2" customWidth="1"/>
-    <col min="12" max="19" width="16.7109375" style="2"/>
-    <col min="20" max="20" width="18.42578125" style="2" customWidth="1"/>
-    <col min="21" max="16384" width="16.7109375" style="2"/>
+    <col min="1" max="1" width="3.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2"/>
+    <col min="3" max="3" width="21" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="16.7109375" style="2"/>
+    <col min="10" max="10" width="43.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="27.85546875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="2" customWidth="1"/>
+    <col min="13" max="20" width="16.7109375" style="2"/>
+    <col min="21" max="21" width="18.42578125" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="16.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="2:32" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="I4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="J4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="O4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="P4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="Q4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="R4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="S4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="T4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="U4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="V4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="W4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="W2" s="11" t="s">
+      <c r="X4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="X2" s="11" t="s">
+      <c r="Y4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="Z4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Z2" s="11" t="s">
+      <c r="AA4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="11" t="s">
+      <c r="AB4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AC4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AC2" s="11" t="s">
+      <c r="AD4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="AD2" s="11" t="s">
+      <c r="AE4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="AE2" s="12" t="s">
+      <c r="AF4" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="2:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="C5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="E5" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="F5" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="17">
+      <c r="G5" s="17">
         <v>62701</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="H5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I5" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="L5" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M5" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N3" s="17">
+      <c r="O5" s="17">
         <v>4.8</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="P5" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="Q5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="R5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="R3" s="8" t="s">
+      <c r="S5" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="T5" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="U5" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="V5" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="V3" s="8" t="s">
+      <c r="W5" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="W3" s="8" t="s">
+      <c r="X5" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="X3" s="8" t="s">
+      <c r="Y5" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="Y3" s="8" t="s">
+      <c r="Z5" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Z3" s="8" t="s">
+      <c r="AA5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AA3" s="8" t="s">
+      <c r="AB5" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB3" s="8" t="s">
+      <c r="AC5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AC3" s="8" t="s">
+      <c r="AD5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AD3" s="8" t="s">
+      <c r="AE5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AE3" s="13" t="s">
+      <c r="AF5" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C6" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="E6" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="F4" s="17">
+      <c r="G6" s="17">
         <v>45202</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H6" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="K6" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="N4" s="17">
+      <c r="O6" s="17">
         <v>4.5</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="P6" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="Q6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="R6" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="S6" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="T6" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="V6" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="W6" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X6" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="Y4" s="8" t="s">
+      <c r="Z6" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Z4" s="8" t="s">
+      <c r="AA6" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AA4" s="8" t="s">
+      <c r="AB6" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="13"/>
-    </row>
-    <row r="5" spans="1:31" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="13"/>
+    </row>
+    <row r="7" spans="2:32" ht="45" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="F5" s="17">
+      <c r="G7" s="17">
         <v>10001</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="H7" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="I7" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="K7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="9" t="s">
+      <c r="L7" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="L5" s="17" t="s">
+      <c r="M7" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="17">
+      <c r="O7" s="17">
         <v>4.7</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="P7" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="Q7" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="Q5" s="8" t="s">
+      <c r="R7" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="S7" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="S5" s="8" t="s">
+      <c r="T7" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="T5" s="8" t="s">
+      <c r="U7" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="U5" s="8" t="s">
+      <c r="V7" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="W7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="W5" s="8" t="s">
+      <c r="X7" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="Y7" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="Y5" s="8" t="s">
+      <c r="Z7" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Z5" s="8" t="s">
+      <c r="AA7" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AA5" s="8" t="s">
+      <c r="AB7" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="8" t="s">
+      <c r="AC7" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="8" t="s">
+      <c r="AD7" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AD5" s="8" t="s">
+      <c r="AE7" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AE5" s="13" t="s">
+      <c r="AF7" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="2:32" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="C8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="D8" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E8" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="F8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="17">
+      <c r="G8" s="17">
         <v>90210</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="H8" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="I8" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="K8" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="M8" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N8" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="N6" s="17">
+      <c r="O8" s="17">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="P8" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="Q8" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="Q6" s="8" t="s">
+      <c r="R8" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="R6" s="8" t="s">
+      <c r="S8" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="S6" s="8" t="s">
+      <c r="T8" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="T6" s="8" t="s">
+      <c r="U8" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="U6" s="8" t="s">
+      <c r="V8" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="W8" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="W6" s="8" t="s">
+      <c r="X8" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="Y8" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="Y6" s="8" t="s">
+      <c r="Z8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="Z6" s="8" t="s">
+      <c r="AA8" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AA6" s="8" t="s">
+      <c r="AB8" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AB6" s="8" t="s">
+      <c r="AC8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AC6" s="8" t="s">
+      <c r="AD8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="AD6" s="8" t="s">
+      <c r="AE8" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="AE6" s="13" t="s">
+      <c r="AF8" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="2:32" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C9" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="F9" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F7" s="18">
+      <c r="G9" s="18">
         <v>30301</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="H9" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="I9" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="J9" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="K9" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="L9" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="L7" s="18" t="s">
+      <c r="M9" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="N9" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="N7" s="18">
+      <c r="O9" s="18">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="P9" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q9" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="R9" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="R7" s="14" t="s">
+      <c r="S9" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="T9" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="U9" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="V9" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="W9" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="W7" s="14" t="s">
+      <c r="X9" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="Y9" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="Y7" s="14" t="s">
+      <c r="Z9" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="Z7" s="14" t="s">
+      <c r="AA9" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="14" t="s">
+      <c r="AB9" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="AB7" s="14" t="s">
+      <c r="AC9" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="14" t="s">
+      <c r="AD9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="AD7" s="14" t="s">
+      <c r="AE9" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="AE7" s="16" t="s">
+      <c r="AF9" s="16" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" display="http://www.techhaven.com/" xr:uid="{89A8761E-5ED8-4182-A499-026E21AFDC1B}"/>
-    <hyperlink ref="P3" r:id="rId2" xr:uid="{E910BC28-67CC-4A43-B54E-EA8E4838EB28}"/>
-    <hyperlink ref="K4" r:id="rId3" display="http://www.greenspoon.com/" xr:uid="{A9857BA7-4FA2-4504-AD1C-8435301D4D4B}"/>
-    <hyperlink ref="P4" r:id="rId4" xr:uid="{4AFDDBE5-C26D-4883-A87B-D7E456549EAE}"/>
-    <hyperlink ref="K5" r:id="rId5" display="http://www.urbanfitness.com/" xr:uid="{2C7B3311-FDFE-49DA-BC53-6D127CF7862F}"/>
-    <hyperlink ref="P5" r:id="rId6" xr:uid="{84AC0E8D-F672-4B6C-909E-7DBC6AB0D0BE}"/>
-    <hyperlink ref="K6" r:id="rId7" display="http://www.bloombeauty.com/" xr:uid="{7BA744D5-D288-466A-9682-1826B0CDF674}"/>
-    <hyperlink ref="P6" r:id="rId8" xr:uid="{4131333F-69B3-4233-861D-8406A2C112C4}"/>
-    <hyperlink ref="K7" r:id="rId9" display="http://www.thrivefinance.com/" xr:uid="{4B0CC3C7-1BAD-44C1-B22D-4315E38377DE}"/>
-    <hyperlink ref="P7" r:id="rId10" xr:uid="{47D11B8E-1B41-4EFD-9BF4-1A0D3D5CEBD3}"/>
+    <hyperlink ref="L5" r:id="rId1" display="http://www.techhaven.com/" xr:uid="{89A8761E-5ED8-4182-A499-026E21AFDC1B}"/>
+    <hyperlink ref="Q5" r:id="rId2" xr:uid="{E910BC28-67CC-4A43-B54E-EA8E4838EB28}"/>
+    <hyperlink ref="L6" r:id="rId3" display="http://www.greenspoon.com/" xr:uid="{A9857BA7-4FA2-4504-AD1C-8435301D4D4B}"/>
+    <hyperlink ref="Q6" r:id="rId4" xr:uid="{4AFDDBE5-C26D-4883-A87B-D7E456549EAE}"/>
+    <hyperlink ref="L7" r:id="rId5" display="http://www.urbanfitness.com/" xr:uid="{2C7B3311-FDFE-49DA-BC53-6D127CF7862F}"/>
+    <hyperlink ref="Q7" r:id="rId6" xr:uid="{84AC0E8D-F672-4B6C-909E-7DBC6AB0D0BE}"/>
+    <hyperlink ref="L8" r:id="rId7" display="http://www.bloombeauty.com/" xr:uid="{7BA744D5-D288-466A-9682-1826B0CDF674}"/>
+    <hyperlink ref="Q8" r:id="rId8" xr:uid="{4131333F-69B3-4233-861D-8406A2C112C4}"/>
+    <hyperlink ref="L9" r:id="rId9" display="http://www.thrivefinance.com/" xr:uid="{4B0CC3C7-1BAD-44C1-B22D-4315E38377DE}"/>
+    <hyperlink ref="Q9" r:id="rId10" xr:uid="{47D11B8E-1B41-4EFD-9BF4-1A0D3D5CEBD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2254,7 +2280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6489365F-6519-48A1-9830-F6FC83B6788D}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -2689,235 +2715,241 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{347E4A1D-989B-4C9B-A38A-695CECA445DA}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="B2:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C5" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D5" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E5" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="F5" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="G5" s="25" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="C6" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="D6" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="E6" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="F6" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="21" t="s">
+      <c r="G6" s="21" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="C7" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="D7" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="G7" s="21" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="C8" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="E8" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="F8" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="G8" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="E9" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F9" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="C10" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="E10" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="F10" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="G10" s="21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="G11" s="21" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="E12" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="G12" s="21" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="C13" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E13" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+    <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D14" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="E14" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="22" t="s">
+      <c r="F14" s="22" t="s">
         <v>193</v>
       </c>
-      <c r="F12" s="23" t="s">
+      <c r="G14" s="23" t="s">
         <v>193</v>
       </c>
     </row>
@@ -2929,137 +2961,143 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631712D2-C3CE-439D-A620-46011D8FA740}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="29.5703125" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="5" max="5" width="29.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G4" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="C5" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="D5" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G5" s="33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="C6" s="26" t="s">
         <v>293</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D6" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="E6" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F6" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="G6" s="33" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="C7" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D7" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="E7" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F7" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="G7" s="33" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="C8" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="D8" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="E8" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="F8" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="G8" s="33" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="9" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C9" s="27" t="s">
         <v>304</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="D9" s="27" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="E9" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="F9" s="27" t="s">
         <v>307</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="G9" s="34" t="s">
         <v>307</v>
       </c>
     </row>
@@ -3071,172 +3109,178 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB62A6D-5E1B-4B86-BF0A-01DD16C4F29C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="2"/>
-    <col min="2" max="2" width="59.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" style="2"/>
+    <col min="1" max="1" width="2.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="2"/>
+    <col min="3" max="3" width="59.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E4" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="D5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="31">
+      <c r="E5" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="6" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C6" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D6" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="31">
+      <c r="E6" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="7" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="D7" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="31">
+      <c r="E7" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C8" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="31">
+      <c r="E8" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C9" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="31">
+      <c r="E9" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D8" s="31">
+      <c r="E10" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="C11" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="31">
+      <c r="E11" s="31">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="12" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D10" s="31">
+      <c r="E12" s="31">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    <row r="13" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="C13" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="31">
+      <c r="E13" s="31">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="14" spans="2:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>279</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="D14" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="32">
+      <c r="E14" s="32">
         <v>4</v>
       </c>
     </row>
